--- a/test_results/translation.xlsx
+++ b/test_results/translation.xlsx
@@ -1,26 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukaszkaminski/Studies/diploma/test_results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumenty\Sem. 7 2020Z\Praca dyplomowa\diploma\test_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B305E7B-8E85-4A4F-A808-9A6499B99874}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891BF072-3193-4EFD-940F-E9BCD3491028}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9550" yWindow="-21710" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="323">
   <si>
     <t>original_text</t>
   </si>
@@ -932,13 +942,70 @@
   </si>
   <si>
     <t>many mps of this parliament would rather see a proposal for the harmonization of the criminal law</t>
+  </si>
+  <si>
+    <t>Zbiór danych (koszyk)</t>
+  </si>
+  <si>
+    <t>[0, 0,1]</t>
+  </si>
+  <si>
+    <t>(0,1, 0,2]</t>
+  </si>
+  <si>
+    <t>(0,2, 0,3]</t>
+  </si>
+  <si>
+    <t>(0,3, 0,4]</t>
+  </si>
+  <si>
+    <t>(0,4, 0,5]</t>
+  </si>
+  <si>
+    <t>(0,5, 0,6]</t>
+  </si>
+  <si>
+    <t>(0,6, 0,7]</t>
+  </si>
+  <si>
+    <t>(0,7, 0,8]</t>
+  </si>
+  <si>
+    <t>(0,8, 0,9]</t>
+  </si>
+  <si>
+    <t>(0,9, 1]</t>
+  </si>
+  <si>
+    <t>Podobieństwo kosinusowe</t>
+  </si>
+  <si>
+    <t>Podobieństwo semantyczne</t>
+  </si>
+  <si>
+    <t>min_value</t>
+  </si>
+  <si>
+    <t>max_value</t>
+  </si>
+  <si>
+    <t>min_count</t>
+  </si>
+  <si>
+    <t>max_count</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>modal_basket</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -950,6 +1017,16 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -960,7 +1037,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -983,14 +1060,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1007,6 +1100,1196 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Histogram wartości podobieństwa kosinusowego oraz semantycznego</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Podobieństwo kosinusowe</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$2:$G$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>[0, 0,1]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(0,1, 0,2]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(0,2, 0,3]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(0,3, 0,4]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(0,4, 0,5]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(0,5, 0,6]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(0,6, 0,7]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(0,7, 0,8]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(0,8, 0,9]</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(0,9, 1]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CA85-48B0-B836-B2F294FDC782}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Podobieństwo semantyczne</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$2:$G$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>[0, 0,1]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(0,1, 0,2]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(0,2, 0,3]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(0,3, 0,4]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(0,4, 0,5]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(0,5, 0,6]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(0,6, 0,7]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(0,7, 0,8]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(0,8, 0,9]</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(0,9, 1]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CA85-48B0-B836-B2F294FDC782}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1015023264"/>
+        <c:axId val="1236181232"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1015023264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1236181232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1236181232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1015023264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>182245</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>598085</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>103055</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BB54A8B-05A4-4E7E-845C-F80DF3B1307C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1294,19 +2577,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="26.5" customWidth="1"/>
+    <col min="1" max="2" width="26.44140625" customWidth="1"/>
     <col min="3" max="3" width="26.6640625" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="22.109375" customWidth="1"/>
+    <col min="9" max="9" width="24.44140625" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" customWidth="1"/>
+    <col min="14" max="14" width="16.109375" customWidth="1"/>
+    <col min="15" max="15" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1322,8 +2613,17 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G1" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1339,8 +2639,17 @@
       <c r="E2">
         <v>0.53599905967712402</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G2" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1356,8 +2665,17 @@
       <c r="E3">
         <v>0.6109066486358643</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G3" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1373,8 +2691,17 @@
       <c r="E4">
         <v>0.38256394863128662</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G4" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H4" s="3">
+        <v>7</v>
+      </c>
+      <c r="I4" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1390,8 +2717,17 @@
       <c r="E5">
         <v>0.85687980651855467</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G5" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="H5" s="3">
+        <v>4</v>
+      </c>
+      <c r="I5" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1407,8 +2743,17 @@
       <c r="E6">
         <v>0.25463128089904791</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G6" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="H6" s="3">
+        <v>12</v>
+      </c>
+      <c r="I6" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1424,8 +2769,17 @@
       <c r="E7">
         <v>0.65087122917175289</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G7" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="H7" s="3">
+        <v>21</v>
+      </c>
+      <c r="I7" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1441,8 +2795,17 @@
       <c r="E8">
         <v>0.79051446914672852</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G8" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H8" s="3">
+        <v>17</v>
+      </c>
+      <c r="I8" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1458,8 +2821,17 @@
       <c r="E9">
         <v>0.71551232337951665</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G9" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H9" s="3">
+        <v>16</v>
+      </c>
+      <c r="I9" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -1475,8 +2847,17 @@
       <c r="E10">
         <v>0.87692918777465823</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G10" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="H10" s="3">
+        <v>20</v>
+      </c>
+      <c r="I10" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -1492,8 +2873,17 @@
       <c r="E11">
         <v>0.89019804000854497</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G11" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="H11" s="3">
+        <v>3</v>
+      </c>
+      <c r="I11" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1509,8 +2899,14 @@
       <c r="E12">
         <v>0.85609245300292969</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N12" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -1526,8 +2922,19 @@
       <c r="E13">
         <v>0.71415991783142085</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="M13" t="s">
+        <v>317</v>
+      </c>
+      <c r="N13">
+        <f>MIN(D2:D101)</f>
+        <v>0.2080125735844609</v>
+      </c>
+      <c r="O13">
+        <f>MIN(E2:E101)</f>
+        <v>0.1571785926818848</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1543,8 +2950,19 @@
       <c r="E14">
         <v>0.37785854339599612</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="M14" t="s">
+        <v>318</v>
+      </c>
+      <c r="N14">
+        <f>MAX(D2:D101)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="O14">
+        <f>MAX(E2:E101)</f>
+        <v>0.94602203369140625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -1560,8 +2978,19 @@
       <c r="E15">
         <v>0.84123706817626953</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="M15" t="s">
+        <v>319</v>
+      </c>
+      <c r="N15">
+        <f>COUNTIF(D2:D101, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f>COUNTIF(E2:E101, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -1577,8 +3006,19 @@
       <c r="E16">
         <v>0.1571785926818848</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="M16" t="s">
+        <v>320</v>
+      </c>
+      <c r="N16">
+        <f>COUNTIF(D2:D101, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <f>COUNTIF(E2:E101, 1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -1594,8 +3034,19 @@
       <c r="E17">
         <v>0.94472579956054692</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="M17" t="s">
+        <v>321</v>
+      </c>
+      <c r="N17">
+        <f>AVERAGE(D2:D101)</f>
+        <v>0.63333820821038389</v>
+      </c>
+      <c r="O17">
+        <f>AVERAGE(E2:E101)</f>
+        <v>0.71541646838188155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -1611,8 +3062,17 @@
       <c r="E18">
         <v>0.73174438476562498</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="M18" t="s">
+        <v>322</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -1629,7 +3089,7 @@
         <v>0.72890725135803225</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -1646,7 +3106,7 @@
         <v>0.90568656921386714</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -1663,7 +3123,7 @@
         <v>0.82832393646240232</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>64</v>
       </c>
@@ -1680,7 +3140,7 @@
         <v>0.53897910118103032</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>67</v>
       </c>
@@ -1697,7 +3157,7 @@
         <v>0.94602203369140625</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -1714,7 +3174,7 @@
         <v>0.27412939071655268</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>73</v>
       </c>
@@ -1731,7 +3191,7 @@
         <v>0.92558450698852535</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>76</v>
       </c>
@@ -1748,7 +3208,7 @@
         <v>0.84255599975585938</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>79</v>
       </c>
@@ -1765,7 +3225,7 @@
         <v>0.75260386466979978</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>82</v>
       </c>
@@ -1782,7 +3242,7 @@
         <v>0.4471567153930664</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>85</v>
       </c>
@@ -1799,7 +3259,7 @@
         <v>0.82569828033447268</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>88</v>
       </c>
@@ -1816,7 +3276,7 @@
         <v>0.85960140228271487</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>91</v>
       </c>
@@ -1833,7 +3293,7 @@
         <v>0.36309876441955569</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>94</v>
       </c>
@@ -1850,7 +3310,7 @@
         <v>0.74915280342102053</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>97</v>
       </c>
@@ -1867,7 +3327,7 @@
         <v>0.58402051925659182</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>100</v>
       </c>
@@ -1884,7 +3344,7 @@
         <v>0.80592231750488286</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>103</v>
       </c>
@@ -1901,7 +3361,7 @@
         <v>0.86723861694335935</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>106</v>
       </c>
@@ -1918,7 +3378,7 @@
         <v>0.72044510841369624</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>109</v>
       </c>
@@ -1935,7 +3395,7 @@
         <v>0.30011911392211921</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>112</v>
       </c>
@@ -1952,7 +3412,7 @@
         <v>0.93049411773681645</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>115</v>
       </c>
@@ -1969,7 +3429,7 @@
         <v>0.71484808921813969</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>118</v>
       </c>
@@ -1986,7 +3446,7 @@
         <v>0.92770824432373045</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>121</v>
       </c>
@@ -2003,7 +3463,7 @@
         <v>0.72797875404357915</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>124</v>
       </c>
@@ -2020,7 +3480,7 @@
         <v>0.89736194610595699</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>127</v>
       </c>
@@ -2037,7 +3497,7 @@
         <v>0.86025943756103518</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>130</v>
       </c>
@@ -2054,7 +3514,7 @@
         <v>0.94372482299804683</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>133</v>
       </c>
@@ -2071,7 +3531,7 @@
         <v>0.83018684387207031</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>136</v>
       </c>
@@ -2088,7 +3548,7 @@
         <v>0.67444472312927251</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>139</v>
       </c>
@@ -2105,7 +3565,7 @@
         <v>0.56622376441955569</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>142</v>
       </c>
@@ -2122,7 +3582,7 @@
         <v>0.89850549697875981</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>145</v>
       </c>
@@ -2139,7 +3599,7 @@
         <v>0.8722899436950684</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>148</v>
       </c>
@@ -2156,7 +3616,7 @@
         <v>0.92520046234130859</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>151</v>
       </c>
@@ -2173,7 +3633,7 @@
         <v>0.87182168960571294</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>154</v>
       </c>
@@ -2190,7 +3650,7 @@
         <v>0.88706550598144529</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>157</v>
       </c>
@@ -2207,7 +3667,7 @@
         <v>0.8981600761413574</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>160</v>
       </c>
@@ -2224,7 +3684,7 @@
         <v>0.81881618499755859</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>163</v>
       </c>
@@ -2241,7 +3701,7 @@
         <v>0.70643630027770998</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>166</v>
       </c>
@@ -2258,7 +3718,7 @@
         <v>0.59185247421264653</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>169</v>
       </c>
@@ -2275,7 +3735,7 @@
         <v>0.78476176261901853</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>172</v>
       </c>
@@ -2292,7 +3752,7 @@
         <v>0.87617139816284184</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>175</v>
       </c>
@@ -2309,7 +3769,7 @@
         <v>0.7264274597167969</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>178</v>
       </c>
@@ -2326,7 +3786,7 @@
         <v>0.69025006294250491</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>181</v>
       </c>
@@ -2343,7 +3803,7 @@
         <v>0.79739966392517092</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>184</v>
       </c>
@@ -2360,7 +3820,7 @@
         <v>0.85122976303100584</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>187</v>
       </c>
@@ -2377,7 +3837,7 @@
         <v>0.59418778419494633</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>190</v>
       </c>
@@ -2394,7 +3854,7 @@
         <v>0.81751480102539065</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>193</v>
       </c>
@@ -2411,7 +3871,7 @@
         <v>0.4048452854156494</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>196</v>
       </c>
@@ -2428,7 +3888,7 @@
         <v>0.71108174324035645</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>199</v>
       </c>
@@ -2445,7 +3905,7 @@
         <v>0.40587778091430671</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>202</v>
       </c>
@@ -2462,7 +3922,7 @@
         <v>0.30872673988342292</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>205</v>
       </c>
@@ -2479,7 +3939,7 @@
         <v>0.84433250427246098</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>208</v>
       </c>
@@ -2496,7 +3956,7 @@
         <v>0.90185279846191402</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>211</v>
       </c>
@@ -2513,7 +3973,7 @@
         <v>0.86960906982421871</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>214</v>
       </c>
@@ -2530,7 +3990,7 @@
         <v>0.67444872856140137</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>217</v>
       </c>
@@ -2547,7 +4007,7 @@
         <v>0.67510046958923342</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>220</v>
       </c>
@@ -2564,7 +4024,7 @@
         <v>0.5258962154388428</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>223</v>
       </c>
@@ -2581,7 +4041,7 @@
         <v>0.67210221290588379</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>226</v>
       </c>
@@ -2598,7 +4058,7 @@
         <v>0.43232898712158202</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>229</v>
       </c>
@@ -2615,7 +4075,7 @@
         <v>0.87929840087890621</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>232</v>
       </c>
@@ -2632,7 +4092,7 @@
         <v>0.46606020927429198</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>235</v>
       </c>
@@ -2649,7 +4109,7 @@
         <v>0.57335991859436031</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>238</v>
       </c>
@@ -2666,7 +4126,7 @@
         <v>0.91064281463623042</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>241</v>
       </c>
@@ -2683,7 +4143,7 @@
         <v>0.80390796661376951</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>244</v>
       </c>
@@ -2700,7 +4160,7 @@
         <v>0.91635856628417967</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>247</v>
       </c>
@@ -2717,7 +4177,7 @@
         <v>0.83748435974121094</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>250</v>
       </c>
@@ -2734,7 +4194,7 @@
         <v>0.89651556015014644</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>253</v>
       </c>
@@ -2751,7 +4211,7 @@
         <v>0.67825517654418943</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>256</v>
       </c>
@@ -2768,7 +4228,7 @@
         <v>0.66068382263183589</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>259</v>
       </c>
@@ -2785,7 +4245,7 @@
         <v>0.85773887634277346</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>262</v>
       </c>
@@ -2802,7 +4262,7 @@
         <v>0.91806726455688481</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>265</v>
       </c>
@@ -2819,7 +4279,7 @@
         <v>0.77577409744262693</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>268</v>
       </c>
@@ -2836,7 +4296,7 @@
         <v>0.7737373828887939</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>271</v>
       </c>
@@ -2853,7 +4313,7 @@
         <v>0.39274358749389648</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>274</v>
       </c>
@@ -2870,7 +4330,7 @@
         <v>0.77833018302917478</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>277</v>
       </c>
@@ -2887,7 +4347,7 @@
         <v>0.59955210685729976</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>280</v>
       </c>
@@ -2904,7 +4364,7 @@
         <v>0.711743688583374</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>283</v>
       </c>
@@ -2921,7 +4381,7 @@
         <v>0.58744044303894039</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>286</v>
       </c>
@@ -2938,7 +4398,7 @@
         <v>0.48788852691650392</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>289</v>
       </c>
@@ -2955,7 +4415,7 @@
         <v>0.74466409683227541</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>292</v>
       </c>
@@ -2972,7 +4432,7 @@
         <v>0.39426436424255368</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>295</v>
       </c>
@@ -2989,7 +4449,7 @@
         <v>0.7332433223724365</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>298</v>
       </c>
@@ -3006,7 +4466,7 @@
         <v>0.82665557861328121</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>301</v>
       </c>
@@ -3025,5 +4485,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/test_results/translation.xlsx
+++ b/test_results/translation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumenty\Sem. 7 2020Z\Praca dyplomowa\diploma\test_results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukaszkaminski/Studies/diploma/test_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891BF072-3193-4EFD-940F-E9BCD3491028}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53E805E-EB00-D148-833C-1E81641A0A6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9550" yWindow="-21710" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="325">
   <si>
     <t>original_text</t>
   </si>
@@ -977,9 +977,6 @@
     <t>(0,9, 1]</t>
   </si>
   <si>
-    <t>Podobieństwo kosinusowe</t>
-  </si>
-  <si>
     <t>Podobieństwo semantyczne</t>
   </si>
   <si>
@@ -998,7 +995,16 @@
     <t>avg</t>
   </si>
   <si>
-    <t>modal_basket</t>
+    <t>Odległość kosinusowa</t>
+  </si>
+  <si>
+    <t>std_deviation</t>
+  </si>
+  <si>
+    <t>cosine_similarity_abs</t>
+  </si>
+  <si>
+    <t>semantic_similarity_abs</t>
   </si>
 </sst>
 </file>
@@ -1075,7 +1081,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1085,6 +1091,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1137,7 +1144,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pl-PL"/>
-              <a:t>Histogram wartości podobieństwa kosinusowego oraz semantycznego</a:t>
+              <a:t>Histogram wartości odległości</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> kosinusowej</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t> oraz podobieństwa semantycznego</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1187,7 +1202,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Podobieństwo kosinusowe</c:v>
+                  <c:v>Odległość kosinusowa</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2577,27 +2592,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O101"/>
+  <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="E9" zoomScale="131" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="26.44140625" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
+    <col min="2" max="2" width="59.5" customWidth="1"/>
+    <col min="3" max="3" width="71.6640625" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="22.109375" customWidth="1"/>
-    <col min="9" max="9" width="24.44140625" customWidth="1"/>
+    <col min="8" max="8" width="22.1640625" customWidth="1"/>
+    <col min="9" max="9" width="24.5" customWidth="1"/>
     <col min="13" max="13" width="14.33203125" customWidth="1"/>
-    <col min="14" max="14" width="16.109375" customWidth="1"/>
-    <col min="15" max="15" width="17.44140625" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2617,13 +2633,13 @@
         <v>304</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2649,7 +2665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2675,7 +2691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2701,7 +2717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -2727,7 +2743,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -2753,7 +2769,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2779,7 +2795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -2805,7 +2821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -2831,7 +2847,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -2857,7 +2873,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -2883,7 +2899,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -2900,13 +2916,13 @@
         <v>0.85609245300292969</v>
       </c>
       <c r="N12" t="s">
-        <v>3</v>
+        <v>323</v>
       </c>
       <c r="O12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -2923,18 +2939,19 @@
         <v>0.71415991783142085</v>
       </c>
       <c r="M13" t="s">
-        <v>317</v>
-      </c>
-      <c r="N13">
+        <v>316</v>
+      </c>
+      <c r="N13" s="5">
         <f>MIN(D2:D101)</f>
         <v>0.2080125735844609</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="5">
         <f>MIN(E2:E101)</f>
         <v>0.1571785926818848</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P13" s="5"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -2951,18 +2968,19 @@
         <v>0.37785854339599612</v>
       </c>
       <c r="M14" t="s">
-        <v>318</v>
-      </c>
-      <c r="N14">
+        <v>317</v>
+      </c>
+      <c r="N14" s="5">
         <f>MAX(D2:D101)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="5">
         <f>MAX(E2:E101)</f>
         <v>0.94602203369140625</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P14" s="5"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -2979,18 +2997,19 @@
         <v>0.84123706817626953</v>
       </c>
       <c r="M15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N15">
+        <v>318</v>
+      </c>
+      <c r="N15" s="5">
         <f>COUNTIF(D2:D101, 0)</f>
         <v>0</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="5">
         <f>COUNTIF(E2:E101, 0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P15" s="5"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -3007,18 +3026,19 @@
         <v>0.1571785926818848</v>
       </c>
       <c r="M16" t="s">
-        <v>320</v>
-      </c>
-      <c r="N16">
+        <v>319</v>
+      </c>
+      <c r="N16" s="5">
         <f>COUNTIF(D2:D101, 1)</f>
         <v>1</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="5">
         <f>COUNTIF(E2:E101, 1)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P16" s="5"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -3035,18 +3055,19 @@
         <v>0.94472579956054692</v>
       </c>
       <c r="M17" t="s">
-        <v>321</v>
-      </c>
-      <c r="N17">
+        <v>320</v>
+      </c>
+      <c r="N17" s="5">
         <f>AVERAGE(D2:D101)</f>
         <v>0.63333820821038389</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="5">
         <f>AVERAGE(E2:E101)</f>
         <v>0.71541646838188155</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P17" s="5"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -3065,14 +3086,17 @@
       <c r="M18" t="s">
         <v>322</v>
       </c>
-      <c r="N18" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N18" s="5">
+        <f>STDEV(D2:D101)</f>
+        <v>0.18585292741827925</v>
+      </c>
+      <c r="O18" s="5">
+        <f>STDEV(E2:E101)</f>
+        <v>0.18855982960770407</v>
+      </c>
+      <c r="P18" s="5"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -3089,7 +3113,7 @@
         <v>0.72890725135803225</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -3106,7 +3130,7 @@
         <v>0.90568656921386714</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -3123,7 +3147,7 @@
         <v>0.82832393646240232</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>64</v>
       </c>
@@ -3140,7 +3164,7 @@
         <v>0.53897910118103032</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>67</v>
       </c>
@@ -3157,7 +3181,7 @@
         <v>0.94602203369140625</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -3174,7 +3198,7 @@
         <v>0.27412939071655268</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>73</v>
       </c>
@@ -3191,7 +3215,7 @@
         <v>0.92558450698852535</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>76</v>
       </c>
@@ -3208,7 +3232,7 @@
         <v>0.84255599975585938</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>79</v>
       </c>
@@ -3225,7 +3249,7 @@
         <v>0.75260386466979978</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>82</v>
       </c>
@@ -3242,7 +3266,7 @@
         <v>0.4471567153930664</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>85</v>
       </c>
@@ -3259,7 +3283,7 @@
         <v>0.82569828033447268</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>88</v>
       </c>
@@ -3276,7 +3300,7 @@
         <v>0.85960140228271487</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>91</v>
       </c>
@@ -3293,7 +3317,7 @@
         <v>0.36309876441955569</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>94</v>
       </c>
@@ -3310,7 +3334,7 @@
         <v>0.74915280342102053</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>97</v>
       </c>
@@ -3327,7 +3351,7 @@
         <v>0.58402051925659182</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>100</v>
       </c>
@@ -3344,7 +3368,7 @@
         <v>0.80592231750488286</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>103</v>
       </c>
@@ -3361,7 +3385,7 @@
         <v>0.86723861694335935</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>106</v>
       </c>
@@ -3378,7 +3402,7 @@
         <v>0.72044510841369624</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>109</v>
       </c>
@@ -3395,7 +3419,7 @@
         <v>0.30011911392211921</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>112</v>
       </c>
@@ -3412,7 +3436,7 @@
         <v>0.93049411773681645</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>115</v>
       </c>
@@ -3429,7 +3453,7 @@
         <v>0.71484808921813969</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>118</v>
       </c>
@@ -3446,7 +3470,7 @@
         <v>0.92770824432373045</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>121</v>
       </c>
@@ -3463,7 +3487,7 @@
         <v>0.72797875404357915</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>124</v>
       </c>
@@ -3480,7 +3504,7 @@
         <v>0.89736194610595699</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>127</v>
       </c>
@@ -3497,7 +3521,7 @@
         <v>0.86025943756103518</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>130</v>
       </c>
@@ -3514,7 +3538,7 @@
         <v>0.94372482299804683</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>133</v>
       </c>
@@ -3531,7 +3555,7 @@
         <v>0.83018684387207031</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>136</v>
       </c>
@@ -3548,7 +3572,7 @@
         <v>0.67444472312927251</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>139</v>
       </c>
@@ -3565,7 +3589,7 @@
         <v>0.56622376441955569</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>142</v>
       </c>
@@ -3582,7 +3606,7 @@
         <v>0.89850549697875981</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>145</v>
       </c>
@@ -3599,7 +3623,7 @@
         <v>0.8722899436950684</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>148</v>
       </c>
@@ -3616,7 +3640,7 @@
         <v>0.92520046234130859</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>151</v>
       </c>
@@ -3633,7 +3657,7 @@
         <v>0.87182168960571294</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>154</v>
       </c>
@@ -3650,7 +3674,7 @@
         <v>0.88706550598144529</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>157</v>
       </c>
@@ -3667,7 +3691,7 @@
         <v>0.8981600761413574</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>160</v>
       </c>
@@ -3684,7 +3708,7 @@
         <v>0.81881618499755859</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>163</v>
       </c>
@@ -3701,7 +3725,7 @@
         <v>0.70643630027770998</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>166</v>
       </c>
@@ -3718,7 +3742,7 @@
         <v>0.59185247421264653</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>169</v>
       </c>
@@ -3735,7 +3759,7 @@
         <v>0.78476176261901853</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>172</v>
       </c>
@@ -3752,7 +3776,7 @@
         <v>0.87617139816284184</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>175</v>
       </c>
@@ -3769,7 +3793,7 @@
         <v>0.7264274597167969</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>178</v>
       </c>
@@ -3786,7 +3810,7 @@
         <v>0.69025006294250491</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>181</v>
       </c>
@@ -3803,7 +3827,7 @@
         <v>0.79739966392517092</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>184</v>
       </c>
@@ -3820,7 +3844,7 @@
         <v>0.85122976303100584</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>187</v>
       </c>
@@ -3837,7 +3861,7 @@
         <v>0.59418778419494633</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>190</v>
       </c>
@@ -3854,7 +3878,7 @@
         <v>0.81751480102539065</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>193</v>
       </c>
@@ -3871,7 +3895,7 @@
         <v>0.4048452854156494</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>196</v>
       </c>
@@ -3888,7 +3912,7 @@
         <v>0.71108174324035645</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>199</v>
       </c>
@@ -3905,7 +3929,7 @@
         <v>0.40587778091430671</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>202</v>
       </c>
@@ -3922,7 +3946,7 @@
         <v>0.30872673988342292</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>205</v>
       </c>
@@ -3939,7 +3963,7 @@
         <v>0.84433250427246098</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>208</v>
       </c>
@@ -3956,7 +3980,7 @@
         <v>0.90185279846191402</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>211</v>
       </c>
@@ -3973,7 +3997,7 @@
         <v>0.86960906982421871</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>214</v>
       </c>
@@ -3990,7 +4014,7 @@
         <v>0.67444872856140137</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>217</v>
       </c>
@@ -4007,7 +4031,7 @@
         <v>0.67510046958923342</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>220</v>
       </c>
@@ -4024,7 +4048,7 @@
         <v>0.5258962154388428</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>223</v>
       </c>
@@ -4041,7 +4065,7 @@
         <v>0.67210221290588379</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>226</v>
       </c>
@@ -4058,7 +4082,7 @@
         <v>0.43232898712158202</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>229</v>
       </c>
@@ -4075,7 +4099,7 @@
         <v>0.87929840087890621</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>232</v>
       </c>
@@ -4092,7 +4116,7 @@
         <v>0.46606020927429198</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>235</v>
       </c>
@@ -4109,7 +4133,7 @@
         <v>0.57335991859436031</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>238</v>
       </c>
@@ -4126,7 +4150,7 @@
         <v>0.91064281463623042</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>241</v>
       </c>
@@ -4143,7 +4167,7 @@
         <v>0.80390796661376951</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>244</v>
       </c>
@@ -4160,7 +4184,7 @@
         <v>0.91635856628417967</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>247</v>
       </c>
@@ -4177,7 +4201,7 @@
         <v>0.83748435974121094</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>250</v>
       </c>
@@ -4194,7 +4218,7 @@
         <v>0.89651556015014644</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>253</v>
       </c>
@@ -4211,7 +4235,7 @@
         <v>0.67825517654418943</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>256</v>
       </c>
@@ -4228,7 +4252,7 @@
         <v>0.66068382263183589</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>259</v>
       </c>
@@ -4245,7 +4269,7 @@
         <v>0.85773887634277346</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>262</v>
       </c>
@@ -4262,7 +4286,7 @@
         <v>0.91806726455688481</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>265</v>
       </c>
@@ -4279,7 +4303,7 @@
         <v>0.77577409744262693</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>268</v>
       </c>
@@ -4296,7 +4320,7 @@
         <v>0.7737373828887939</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>271</v>
       </c>
@@ -4313,7 +4337,7 @@
         <v>0.39274358749389648</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>274</v>
       </c>
@@ -4330,7 +4354,7 @@
         <v>0.77833018302917478</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>277</v>
       </c>
@@ -4347,7 +4371,7 @@
         <v>0.59955210685729976</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>280</v>
       </c>
@@ -4364,7 +4388,7 @@
         <v>0.711743688583374</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>283</v>
       </c>
@@ -4381,7 +4405,7 @@
         <v>0.58744044303894039</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>286</v>
       </c>
@@ -4398,7 +4422,7 @@
         <v>0.48788852691650392</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>289</v>
       </c>
@@ -4415,7 +4439,7 @@
         <v>0.74466409683227541</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>292</v>
       </c>
@@ -4432,7 +4456,7 @@
         <v>0.39426436424255368</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>295</v>
       </c>
@@ -4449,7 +4473,7 @@
         <v>0.7332433223724365</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>298</v>
       </c>
@@ -4466,7 +4490,7 @@
         <v>0.82665557861328121</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>301</v>
       </c>
